--- a/pdTwo/src/main/resources/csv/user.xlsx
+++ b/pdTwo/src/main/resources/csv/user.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27504"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\BL6PEPF0001995F\EXCELCNV\758790af-2830-4a9d-adfd-40b360e2641e\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -102,12 +102,37 @@
   </si>
   <si>
     <t>nonfaculty</t>
+  </si>
+  <si>
+    <t>lifeisgood@gmail.com</t>
+  </si>
+  <si>
+    <t>hopscotch</t>
+  </si>
+  <si>
+    <t>userManagement.Student</t>
+  </si>
+  <si>
+    <t>good@gmail.com</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>notgood@gmail.com</t>
+  </si>
+  <si>
+    <t>hello@gmail.com</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -942,7 +967,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1048,6 +1073,86 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pdTwo/src/main/resources/csv/user.xlsx
+++ b/pdTwo/src/main/resources/csv/user.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>hello</t>
+  </si>
+  <si>
+    <t>helloworld@gmail.com</t>
+  </si>
+  <si>
+    <t>helloworld</t>
   </si>
 </sst>
 </file>
@@ -967,7 +973,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1153,6 +1159,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13">
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pdTwo/src/main/resources/csv/user.xlsx
+++ b/pdTwo/src/main/resources/csv/user.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>name</t>
   </si>

--- a/pdTwo/src/main/resources/csv/user.xlsx
+++ b/pdTwo/src/main/resources/csv/user.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -132,6 +132,51 @@
   </si>
   <si>
     <t>helloworld</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>helloworld1@gmail.com</t>
+  </si>
+  <si>
+    <t>helloworld1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>hell@gmail.com</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>helloworld2@gmail.com</t>
+  </si>
+  <si>
+    <t>helloworld2</t>
+  </si>
+  <si>
+    <t>helloworld3@gmail.com</t>
+  </si>
+  <si>
+    <t>helloworld3</t>
+  </si>
+  <si>
+    <t>helloworld4@gmail.com</t>
+  </si>
+  <si>
+    <t>helloworld4</t>
+  </si>
+  <si>
+    <t>helloworld5@gmail.com</t>
+  </si>
+  <si>
+    <t>helloworld5</t>
   </si>
 </sst>
 </file>
@@ -973,7 +1018,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1173,6 +1218,162 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="n">
+        <v>-2.0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="n">
+        <v>-3.0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="n">
+        <v>-4.0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="n">
+        <v>-5.0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pdTwo/src/main/resources/csv/user.xlsx
+++ b/pdTwo/src/main/resources/csv/user.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -177,6 +177,27 @@
   </si>
   <si>
     <t>helloworld5</t>
+  </si>
+  <si>
+    <t>helloworld6@gmail.com</t>
+  </si>
+  <si>
+    <t>helloworld6</t>
+  </si>
+  <si>
+    <t>Visitor</t>
+  </si>
+  <si>
+    <t>helloworld7@gmail.com</t>
+  </si>
+  <si>
+    <t>helloworld7</t>
+  </si>
+  <si>
+    <t>helloworld8@gmail.com</t>
+  </si>
+  <si>
+    <t>helloworld8</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1039,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1374,6 +1395,58 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="21">
+      <c r="B21" t="n">
+        <v>-6.0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="n">
+        <v>-7.0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pdTwo/src/main/resources/csv/user.xlsx
+++ b/pdTwo/src/main/resources/csv/user.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="55">
   <si>
     <t>name</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>helloworld8</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
   </si>
 </sst>
 </file>
@@ -1383,13 +1386,13 @@
         <v>26</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
         <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>

--- a/pdTwo/src/main/resources/csv/user.xlsx
+++ b/pdTwo/src/main/resources/csv/user.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="55">
   <si>
     <t>name</t>
   </si>

--- a/pdTwo/src/main/resources/csv/user.xlsx
+++ b/pdTwo/src/main/resources/csv/user.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="55">
   <si>
     <t>name</t>
   </si>

--- a/pdTwo/src/main/resources/csv/user.xlsx
+++ b/pdTwo/src/main/resources/csv/user.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -114,6 +114,36 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>helloworld6@gmail.com</t>
+  </si>
+  <si>
+    <t>helloworld6</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>helloworld7@gmail.com</t>
+  </si>
+  <si>
+    <t>helloworld7</t>
+  </si>
+  <si>
+    <t>helloworld8@gmail.com</t>
+  </si>
+  <si>
+    <t>helloworld8</t>
+  </si>
+  <si>
+    <t>helloworld5@gmail.com</t>
+  </si>
+  <si>
+    <t>helloworld5</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
   </si>
 </sst>
 </file>
@@ -955,7 +985,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1087,6 +1117,84 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="7">
+      <c r="B7" t="n">
+        <v>-6.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n">
+        <v>-7.0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>-5.0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pdTwo/src/main/resources/csv/user.xlsx
+++ b/pdTwo/src/main/resources/csv/user.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>name</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>Computer Science</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>newfaculty@university.edu</t>
+  </si>
+  <si>
+    <t>newpass</t>
+  </si>
+  <si>
+    <t>Faculty</t>
   </si>
 </sst>
 </file>
@@ -985,32 +997,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
@@ -1192,6 +1184,32 @@
         <v>35</v>
       </c>
       <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/pdTwo/src/main/resources/csv/user.xlsx
+++ b/pdTwo/src/main/resources/csv/user.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>Faculty</t>
+  </si>
+  <si>
+    <t>newuser@example.com</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Biology</t>
   </si>
 </sst>
 </file>
@@ -997,32 +1006,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I10"/>
+  <dimension ref="A3:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-    </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>10</v>
@@ -1041,6 +1030,9 @@
       </c>
       <c r="F3" t="b">
         <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1210,6 +1202,32 @@
         <v>25</v>
       </c>
       <c r="I10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/pdTwo/src/main/resources/csv/user.xlsx
+++ b/pdTwo/src/main/resources/csv/user.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t>name</t>
   </si>

--- a/pdTwo/src/main/resources/csv/user.xlsx
+++ b/pdTwo/src/main/resources/csv/user.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
   <si>
     <t>name</t>
   </si>

--- a/pdTwo/src/main/resources/csv/user.xlsx
+++ b/pdTwo/src/main/resources/csv/user.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="44">
   <si>
     <t>name</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Biology</t>
+  </si>
+  <si>
+    <t>Physics</t>
   </si>
 </sst>
 </file>

--- a/pdTwo/src/main/resources/csv/user.xlsx
+++ b/pdTwo/src/main/resources/csv/user.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="44">
   <si>
     <t>name</t>
   </si>

--- a/pdTwo/src/main/resources/csv/user.xlsx
+++ b/pdTwo/src/main/resources/csv/user.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="44">
   <si>
     <t>name</t>
   </si>

--- a/pdTwo/src/main/resources/csv/user.xlsx
+++ b/pdTwo/src/main/resources/csv/user.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="44">
   <si>
     <t>name</t>
   </si>

--- a/pdTwo/src/main/resources/csv/user.xlsx
+++ b/pdTwo/src/main/resources/csv/user.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="44">
   <si>
     <t>name</t>
   </si>
